--- a/LinearRegression/result.xlsx
+++ b/LinearRegression/result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Machine-learning\LinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB147B1E-70A1-45FE-BC1B-18C1D87DC8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E586AE-0AA7-461B-B7F6-4AD06F35125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="1608" windowWidth="23856" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="2772" windowWidth="23856" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,12 +27,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
-    <t>进程已结束,退出代码0</t>
+    <t>[-0.06415618 -0.2229185  -0.22534376  0.46605019 -0.02758621  0.19883743</t>
   </si>
   <si>
-    <t>it:</t>
+    <t xml:space="preserve">  -0.01821442]</t>
+  </si>
+  <si>
+    <t>[ 1.64479385 -0.18705822 -0.5536761   0.14447903 -0.09000367  0.34432789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.12034894 -0.4017731  -0.1357542  -0.74513989 -0.25264414 -0.43693829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.37850214  0.70966262 -0.094878   -0.07471928 -0.64723618  0.67189499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.18953022  0.02079378 -0.08007903  0.67691126 -0.80662511 -0.54555486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.49875201  0.44936101 -0.78164897  0.67593345  0.11511107  0.26823846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.36173662  0.69738464 -0.09550267  0.09558139 -0.86009018 -0.26480137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.78689814 -0.19093983 -0.27532365 -0.07518841 -0.94127417  0.001994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.03296714 -0.36427688  0.39014747 -1.0099058   0.06481597  0.89626842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.28298801 -0.58740988]</t>
+  </si>
+  <si>
+    <t>weights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.05938728 -0.21846009 -0.21631569  0.45469867 -0.02107989  0.19180492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01346848]</t>
+  </si>
+  <si>
+    <t>[ 1.59436641 -0.17225784 -0.53408096  0.14363907 -0.07839729  0.32223341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1100331  -0.38100961 -0.13470949 -0.72241143 -0.23455135 -0.42273431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.36437334  0.68623504 -0.09126452 -0.07996223 -0.6363993   0.66418411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.18256329  0.03539224 -0.08503662  0.67348867 -0.79273919 -0.52734245</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.47967956  0.44433322 -0.77174513  0.67127708  0.10193136  0.25397842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.35482333  0.67752904 -0.10604446  0.08006148 -0.82688378 -0.25061515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.75323892 -0.18789521 -0.27791744 -0.06894068 -0.89746113  0.00285285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02551936 -0.35119929  0.37597231 -0.9957756   0.06750657  0.86666524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.26860253 -0.55792078]</t>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.92154947 0.80829428 0.87397433 1.3142877  0.13392374 1.59904727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.02029192]</t>
+  </si>
+  <si>
+    <t>Final weight:  [0.92154947 0.80829428 0.87397433 1.3142877  0.13392374 1.59904727</t>
+  </si>
+  <si>
+    <t>Final predict:  [ 1.73992382 -0.20329391 -0.65237682  0.17411799 -0.160676    0.09512881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.15909256 -0.41707094 -0.3814242  -0.82730219 -0.30614297 -0.53104552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.41341217  0.75997232 -0.25237956 -0.04930217 -0.5855157   1.03913388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.35249274  0.42368556 -0.28088535  1.25070131 -0.76577769 -0.7708314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.5233595   0.54816914 -0.77117614  1.1928089   0.44502915  0.167393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.26604175  0.62356229  0.04199915  0.19966801 -0.88032999 -0.23290683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.62667408 -0.32124636 -0.06018494 -0.10759403 -0.93419794 -0.15933845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04232981 -0.52167993  0.44289899 -1.02476783 -0.04867601  0.93761201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.64524004 -0.59025791]</t>
+  </si>
+  <si>
+    <t>Final error:  23.361324404157966</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2495,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$75</c:f>
+              <c:f>Sheet2!$B$2:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
@@ -4014,16 +4130,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4055,13 +4171,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
@@ -4355,15 +4471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5000"/>
+  <dimension ref="A1:P5000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4373,8 +4489,20 @@
       <c r="C1">
         <v>22.3251496768248</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>22.230479422720901</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4384,8 +4512,11 @@
       <c r="C2">
         <v>18.281290315701199</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4396,7 +4527,7 @@
         <v>16.946515270158901</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4406,8 +4537,14 @@
       <c r="C4">
         <v>16.294824570376001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4417,8 +4554,11 @@
       <c r="C5">
         <v>15.928978219729</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4428,8 +4568,11 @@
       <c r="C6">
         <v>15.7147853501603</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4439,8 +4582,11 @@
       <c r="C7">
         <v>15.587348190864001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4450,8 +4596,11 @@
       <c r="C8">
         <v>15.5108185567388</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4461,8 +4610,11 @@
       <c r="C9">
         <v>15.464505707259301</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4472,8 +4624,11 @@
       <c r="C10">
         <v>15.436248720381</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4483,8 +4638,11 @@
       <c r="C11">
         <v>15.418828764764401</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4494,8 +4652,11 @@
       <c r="C12">
         <v>15.4079332207875</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4506,7 +4667,7 @@
         <v>15.4009743638941</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4517,7 +4678,7 @@
         <v>15.396394698133101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4528,7 +4689,7 @@
         <v>15.3932547734479</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4539,7 +4700,7 @@
         <v>15.390987068996701</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4550,7 +4711,7 @@
         <v>15.389248377448601</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4561,7 +4722,7 @@
         <v>15.3878309871128</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4571,8 +4732,11 @@
       <c r="C19">
         <v>15.386609121637299</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4582,8 +4746,11 @@
       <c r="C20">
         <v>15.3855065899546</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4594,7 +4761,7 @@
         <v>15.3844772251555</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4605,7 +4772,7 @@
         <v>15.383493047096</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4616,7 +4783,7 @@
         <v>15.382537095018799</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4627,7 +4794,7 @@
         <v>15.381599086098801</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4638,7 +4805,7 @@
         <v>15.3806727849932</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4649,7 +4816,7 @@
         <v>15.379754409762899</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4660,7 +4827,7 @@
         <v>15.3788416657135</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4671,7 +4838,7 @@
         <v>15.3779331597569</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4682,7 +4849,7 @@
         <v>15.377028045401699</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4693,7 +4860,7 @@
         <v>15.3761258075388</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4704,7 +4871,7 @@
         <v>15.3752261319698</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -46172,842 +46339,657 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AD81C8-44CD-483A-8764-DCDBE4DE1191}">
-  <dimension ref="A1:C3980"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:C3976"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
         <v>21.534051693519501</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>19.175853128695401</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
         <v>18.1010631392592</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
         <v>17.500429253564501</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
         <v>16.649843657698501</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
         <v>16.501789688694199</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
         <v>16.387744374350099</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
         <v>16.298683326655102</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
         <v>16.228516006260101</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
         <v>15.911330853650499</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
         <v>15.8847588074683</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
         <v>15.861330057197501</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
       </c>
       <c r="B13">
+        <v>15.8405970899469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>15.8221977864364</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>15.8405970899469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>15.8221977864364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
+      <c r="D14">
+        <v>22.1214985854037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15">
         <v>15.6732511093462</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
         <v>15.665177666949401</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17">
         <v>15.657590700550999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18">
         <v>15.6504542460197</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19">
         <v>15.643736058917201</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20">
         <v>15.570797882326</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21">
         <v>15.567650225855999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22">
         <v>15.5645983256444</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23">
         <v>15.5616385759807</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="C24">
         <v>15.5587675648384</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25">
         <v>15.522610141175999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>26</v>
-      </c>
-      <c r="C26">
         <v>15.5212208773385</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27">
         <v>15.5198528504938</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28">
         <v>15.518505657051699</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="C29">
         <v>15.517178904464799</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30">
         <v>15.499170759844301</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="C31">
         <v>15.4985182238612</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>32</v>
-      </c>
-      <c r="C32">
         <v>15.4978706879662</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>33</v>
-      </c>
-      <c r="C33">
         <v>15.497228104423799</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>34</v>
-      </c>
-      <c r="C34">
         <v>15.496590426157301</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>35</v>
-      </c>
-      <c r="C35">
         <v>15.4876031656375</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>36</v>
-      </c>
-      <c r="C36">
         <v>15.4872869525573</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>37</v>
-      </c>
-      <c r="C37">
         <v>15.4869719525158</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>38</v>
-      </c>
-      <c r="C38">
         <v>15.4866581597087</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>39</v>
-      </c>
-      <c r="C39">
         <v>15.486345568372201</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
         <v>15.4818560424239</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1</v>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>41</v>
-      </c>
-      <c r="C41">
         <v>15.481700393120301</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1</v>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>42</v>
-      </c>
-      <c r="C42">
         <v>15.4815450425537</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>43</v>
-      </c>
-      <c r="C43">
         <v>15.481389990008299</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>44</v>
-      </c>
-      <c r="C44">
         <v>15.481235234771299</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1</v>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>45</v>
-      </c>
-      <c r="C45">
         <v>15.4789914858529</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="C46" s="1">
+      <c r="B46" s="1">
         <v>15.4789142685785</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1</v>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>47</v>
-      </c>
-      <c r="C47">
         <v>15.4788371254292</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>48</v>
-      </c>
-      <c r="C48">
         <v>15.478760056316</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1</v>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>49</v>
-      </c>
-      <c r="C49">
         <v>15.4786830611504</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1</v>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>50</v>
-      </c>
-      <c r="C50">
         <v>15.477561438721199</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1</v>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>51</v>
-      </c>
-      <c r="C51">
         <v>15.4775229810699</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1</v>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>52</v>
-      </c>
-      <c r="C52">
         <v>15.477484541880299</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>53</v>
-      </c>
-      <c r="C53">
         <v>15.4774461211414</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>54</v>
-      </c>
-      <c r="C54">
         <v>15.4774077188421</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1</v>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>55</v>
-      </c>
-      <c r="C55">
         <v>15.476846970450699</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1</v>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>56</v>
-      </c>
-      <c r="C56">
         <v>15.476827779264701</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>57</v>
-      </c>
-      <c r="C57">
         <v>15.476808592685501</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1</v>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>58</v>
-      </c>
-      <c r="C58">
         <v>15.4767894107116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1</v>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>59</v>
-      </c>
-      <c r="C59">
         <v>15.476770233341799</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1</v>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>60</v>
-      </c>
-      <c r="C60">
         <v>15.4764898748289</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1</v>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>61</v>
-      </c>
-      <c r="C61">
         <v>15.4764802886325</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1</v>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>62</v>
-      </c>
-      <c r="C62">
         <v>15.476470703586701</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1</v>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>63</v>
-      </c>
-      <c r="C63">
         <v>15.476461119691299</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1</v>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>64</v>
-      </c>
-      <c r="C64">
         <v>15.4764515369462</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1</v>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>65</v>
-      </c>
-      <c r="C65">
         <v>15.4763113616076</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1</v>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>66</v>
-      </c>
-      <c r="C66">
         <v>15.476306570856901</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>67</v>
-      </c>
-      <c r="C67">
         <v>15.476301780393699</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>68</v>
-      </c>
-      <c r="C68">
         <v>15.476296990218</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1</v>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>69</v>
-      </c>
-      <c r="C69">
         <v>15.4762922003297</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1</v>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>70</v>
-      </c>
-      <c r="C70">
         <v>15.4762221136395</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1</v>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>71</v>
-      </c>
-      <c r="C71">
         <v>15.4762197188508</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1</v>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>72</v>
-      </c>
-      <c r="C72">
         <v>15.476217324134</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1</v>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>73</v>
-      </c>
-      <c r="C73">
         <v>15.476214929489</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1</v>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>74</v>
-      </c>
-      <c r="C74">
         <v>15.4762125349159</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1</v>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>75</v>
-      </c>
-      <c r="C75">
         <v>15.4761774918155</v>
-      </c>
-    </row>
-    <row r="3980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3980" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -47015,4 +46997,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4806D7CD-1EBC-41D4-9017-C07E5E870591}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>